--- a/dist/Condition.xlsx
+++ b/dist/Condition.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shoyo\Desktop\かつみ\crowdworks\NET不動産登記情報取得\work8_exe化\touki-scrapy\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D9E9B1-1959-41E8-882F-73B692C8D36F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3DCE27-6E0F-4804-94DF-E6399FE13241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="1905" windowWidth="24420" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2130" yWindow="525" windowWidth="24420" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="収集条件" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>ID番号</t>
     <rPh sb="2" eb="4">
@@ -281,17 +281,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AAMI2107</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>touki24@</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>〇</t>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -309,19 +298,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>土地/建物を選択</t>
-    <rPh sb="0" eb="2">
-      <t>トチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タテモノ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>数値入力</t>
     <rPh sb="0" eb="2">
       <t>スウチ</t>
@@ -332,19 +308,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対象の時、〇を選択</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>自由入力</t>
     <rPh sb="0" eb="2">
       <t>ジユウ</t>
@@ -368,45 +331,77 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>種別から地番・家屋番号の選択なしは同上</t>
+    <t>請求種別</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土地所在図/地積測量図</t>
+  </si>
+  <si>
+    <t>土地所在図/地積測量図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>建物図面/各階平面図</t>
+  </si>
+  <si>
+    <t>建物図面/各階平面図</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土地の全部事項</t>
+  </si>
+  <si>
+    <t>土地の全部事項</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>建物の全部事項</t>
     <rPh sb="0" eb="2">
-      <t>シュベツ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
+      <t>タテモノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県名から地番・家屋番号の選択なしは同上</t>
+    <rPh sb="0" eb="5">
+      <t>トドウフケンメイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>チバン</t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="10" eb="12">
       <t>カオク</t>
     </rPh>
-    <rPh sb="9" eb="11">
+    <rPh sb="12" eb="14">
       <t>バンゴウ</t>
     </rPh>
-    <rPh sb="12" eb="14">
+    <rPh sb="15" eb="17">
       <t>センタク</t>
     </rPh>
-    <rPh sb="17" eb="19">
+    <rPh sb="20" eb="22">
       <t>ドウジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>請求種別がすべて対象なしの場合は収集対象外</t>
+    <t>請求種別の選択ある行のみ収集対象外</t>
     <rPh sb="0" eb="2">
       <t>セイキュウ</t>
     </rPh>
     <rPh sb="2" eb="4">
       <t>シュベツ</t>
     </rPh>
-    <rPh sb="8" eb="10">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
       <t>シュウシュウ</t>
     </rPh>
-    <rPh sb="18" eb="21">
+    <rPh sb="14" eb="17">
       <t>タイショウガイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -461,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -482,6 +477,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -509,9 +515,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -796,269 +804,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6CD616C-736F-46F0-B5AA-09CC398A5185}">
-  <dimension ref="B2:J20"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.25" style="3" customWidth="1"/>
     <col min="2" max="2" width="4.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="10" width="11.25" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="11.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9" style="3"/>
+    <col min="7" max="7" width="31.875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:7">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="2:10">
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="2:10">
-      <c r="F4" s="10" t="s">
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-    </row>
-    <row r="5" spans="2:10" ht="36">
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9">
+      <c r="E6" s="8">
         <v>380</v>
       </c>
-      <c r="G6" s="9">
+      <c r="F6" s="8">
         <v>389</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="G6" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="C7" s="8"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
       <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
       <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="C9" s="8"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
       <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="2:7">
       <c r="B11" s="6">
         <v>6</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="C11" s="8"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="6">
         <v>7</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="6">
         <v>8</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="2:7">
       <c r="B14" s="6">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="C14" s="8"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="2:7">
       <c r="B15" s="6">
         <v>10</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="C16" s="3" t="s">
-        <v>68</v>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="D16" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8">
-      <c r="D17" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3">
+      <c r="C18" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="3:8">
-      <c r="C18" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8">
-      <c r="H19" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8">
-      <c r="C20" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:J4"/>
+  <mergeCells count="3">
+    <mergeCell ref="E4:F4"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
   </mergeCells>
@@ -1066,24 +1014,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B1EB40C6-2F09-4FDD-A385-46085E755FB9}">
-          <x14:formula1>
-            <xm:f>選択肢!$B$6:$B$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>C6:C15</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D268152C-7DDF-43EC-807B-DBB06DC96762}">
           <x14:formula1>
             <xm:f>選択肢!$C$6:$C$52</xm:f>
           </x14:formula1>
-          <xm:sqref>D6:D15</xm:sqref>
+          <xm:sqref>C6:C15</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E42D2DB-11A5-4955-A1D4-819E9225358A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C69C069D-1AE5-4386-BB6A-DDC5EAC18DD2}">
           <x14:formula1>
-            <xm:f>選択肢!$G$6:$G$7</xm:f>
+            <xm:f>選択肢!$K$6:$K$9</xm:f>
           </x14:formula1>
-          <xm:sqref>H6:J15</xm:sqref>
+          <xm:sqref>G6:G15</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1093,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J52"/>
+  <dimension ref="B2:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1106,16 +1048,15 @@
     <col min="4" max="4" width="22.25" customWidth="1"/>
     <col min="5" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="9" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:11">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="10"/>
-      <c r="D2" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1123,14 +1064,12 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:11">
       <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="10"/>
-      <c r="D3" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1138,7 +1077,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:11">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1153,7 +1092,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
     </row>
-    <row r="5" spans="2:10" ht="54">
+    <row r="5" spans="2:11" ht="54">
       <c r="B5" s="4" t="s">
         <v>62</v>
       </c>
@@ -1181,8 +1120,11 @@
       <c r="J5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="2:10">
+      <c r="K5" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -1199,64 +1141,76 @@
         <v>389</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="K7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="C8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="K8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
       <c r="C9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="K9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:11">
       <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:11">
       <c r="C12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:11">
       <c r="C13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:11">
       <c r="C14" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:11">
       <c r="C15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:11">
       <c r="C16" t="s">
         <v>26</v>
       </c>
